--- a/_ConfigExcels/Datas/com_color.xlsx
+++ b/_ConfigExcels/Datas/com_color.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -94,6 +94,14 @@
   </si>
   <si>
     <t>常用字色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ffffff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#02E600</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +476,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/_ConfigExcels/Datas/com_color.xlsx
+++ b/_ConfigExcels/Datas/com_color.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -103,13 +103,22 @@
   <si>
     <t>#02E600</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3EBFF6</t>
+  </si>
+  <si>
+    <t>#BC3EF6</t>
+  </si>
+  <si>
+    <t>#F6B63E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +149,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -186,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -476,7 +494,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,43 +578,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>

--- a/_ConfigExcels/Datas/com_color.xlsx
+++ b/_ConfigExcels/Datas/com_color.xlsx
@@ -65,60 +65,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>品质-紫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质-橙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>color_lightbg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮底板的字体颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>color_darkbg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗底板的字体颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用字色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>#ffffff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>品质-紫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质-橙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>color_lightbg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮底板的字体颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>color_darkbg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗底板的字体颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用字色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ffffff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#02E600</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#3EBFF6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#BC3EF6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#F6B63E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,12 +152,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -201,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,9 +208,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -494,7 +488,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -513,10 +507,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -544,10 +538,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -558,10 +552,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -569,55 +563,55 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/com_color.xlsx
+++ b/_ConfigExcels/Datas/com_color.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -101,19 +101,68 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#3EBFF6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#BC3EF6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#F6B63E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质-绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质-红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#679069</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5bc562</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#476ca4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#75a9f8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7947a4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ca78e2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#c16830</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#e79e57</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#fe5152</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b93b3c</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -566,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
@@ -577,13 +626,13 @@
         <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -591,13 +640,13 @@
         <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -605,17 +654,46 @@
         <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>104</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/com_color.xlsx
+++ b/_ConfigExcels/Datas/com_color.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>强调颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>品质-蓝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -81,10 +77,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>color_darkbg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暗底板的字体颜色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -94,10 +86,6 @@
   </si>
   <si>
     <t>#ffffff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#02E600</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -163,6 +151,26 @@
       </rPr>
       <t>b93b3c</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>color_darkbg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#02E600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强调颜色-绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强调颜色-红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ff7d7d</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -556,10 +564,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -587,10 +595,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -598,13 +606,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -612,83 +620,97 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
+        <v>104</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
         <v>105</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>29</v>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/com_color.xlsx
+++ b/_ConfigExcels/Datas/com_color.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>#ff7d7d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#88ff00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +549,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,7 +613,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>29</v>
